--- a/Mouse/MouseAdult_CellTypes.xlsx
+++ b/Mouse/MouseAdult_CellTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\freya\NAS\mgriswold\CellProfileLibrary\Mouse\Adult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\freya\NAS\mgriswold\CellProfileLibrary\Mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2383ACBC-1D7E-4BD6-8CEE-A0016E5B35D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29355172-3B23-4E59-8C74-3722A5FCB5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="240" windowWidth="7500" windowHeight="12300" firstSheet="23" activeTab="25" xr2:uid="{EF3D0EE4-8FB4-4CD1-A1F7-226FF1ED9010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EF3D0EE4-8FB4-4CD1-A1F7-226FF1ED9010}"/>
   </bookViews>
   <sheets>
     <sheet name="Bladder_MCA" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="556">
   <si>
     <t>Main Cell Types</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>NP SUB</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Astro</t>
@@ -2351,7 +2348,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2370,10 +2367,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,15 +2378,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
         <v>305</v>
-      </c>
-      <c r="C4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
         <v>308</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,10 +2405,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
         <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,10 +2438,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
         <v>312</v>
-      </c>
-      <c r="C10" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,10 +2449,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
         <v>314</v>
-      </c>
-      <c r="C11" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,27 +2463,27 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,17 +2494,17 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2515,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2526,10 +2523,10 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2537,10 +2534,10 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2581,10 +2578,10 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2592,10 +2589,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2606,17 +2603,17 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,10 +2621,10 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2648,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2673,12 +2670,12 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2689,12 +2686,12 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,22 +2707,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,10 +2730,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" t="s">
         <v>340</v>
-      </c>
-      <c r="C12" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2747,22 +2744,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,10 +2767,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" t="s">
         <v>346</v>
-      </c>
-      <c r="C17" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,15 +2778,15 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" t="s">
         <v>348</v>
-      </c>
-      <c r="C18" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,12 +2797,12 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,10 +2810,10 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" t="s">
         <v>353</v>
-      </c>
-      <c r="C22" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,7 +2824,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,15 +2832,15 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2886,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,17 +2897,17 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2945,10 +2942,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2967,10 +2964,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" t="s">
         <v>353</v>
-      </c>
-      <c r="C12" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2981,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -3016,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3049,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,15 +3065,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,10 +3092,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,10 +3103,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" t="s">
         <v>367</v>
-      </c>
-      <c r="C10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,12 +3117,12 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,10 +3130,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" t="s">
         <v>370</v>
-      </c>
-      <c r="C13" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -3182,7 +3179,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3215,12 +3212,12 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3233,10 +3230,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" t="s">
         <v>340</v>
-      </c>
-      <c r="C7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3244,10 +3241,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3263,7 +3260,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3282,10 +3279,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" t="s">
         <v>376</v>
-      </c>
-      <c r="C12" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,12 +3293,12 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3309,20 +3306,20 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3342,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3367,12 +3364,12 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,12 +3391,12 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3407,10 +3404,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3426,7 +3423,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3434,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3445,10 +3442,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3456,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3475,7 +3472,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3496,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3518,20 +3515,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" t="s">
         <v>390</v>
-      </c>
-      <c r="C3" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3539,15 +3536,15 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
         <v>394</v>
-      </c>
-      <c r="C6" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3555,20 +3552,20 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" t="s">
         <v>397</v>
-      </c>
-      <c r="C8" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,12 +3576,12 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,10 +3589,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" t="s">
         <v>402</v>
-      </c>
-      <c r="C13" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" t="s">
         <v>404</v>
-      </c>
-      <c r="C14" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3617,7 +3614,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,10 +3622,10 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" t="s">
         <v>406</v>
-      </c>
-      <c r="C16" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3652,7 +3649,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3671,10 +3668,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
         <v>409</v>
-      </c>
-      <c r="C3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3693,10 +3690,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
         <v>411</v>
-      </c>
-      <c r="C5" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3707,7 +3704,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3715,10 +3712,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" t="s">
         <v>413</v>
-      </c>
-      <c r="C7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3726,10 +3723,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" t="s">
         <v>415</v>
-      </c>
-      <c r="C8" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3737,10 +3734,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" t="s">
         <v>417</v>
-      </c>
-      <c r="C9" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3751,17 +3748,17 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,12 +3769,12 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3785,10 +3782,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" t="s">
         <v>422</v>
-      </c>
-      <c r="C15" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3796,10 +3793,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3832,17 +3829,17 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3850,7 +3847,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -3877,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3899,22 +3896,22 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3925,7 +3922,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3947,12 +3944,12 @@
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3963,32 +3960,32 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3999,12 +3996,12 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4033,7 +4030,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -4060,7 +4057,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4104,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4112,10 +4109,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" t="s">
         <v>441</v>
-      </c>
-      <c r="C6" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4126,7 +4123,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4137,7 +4134,7 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4145,10 +4142,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,10 +4153,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4170,7 +4167,7 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4178,10 +4175,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4189,10 +4186,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4244,10 +4241,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" t="s">
         <v>448</v>
-      </c>
-      <c r="C18" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4255,15 +4252,15 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" t="s">
         <v>450</v>
-      </c>
-      <c r="C19" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,10 +4268,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21" t="s">
         <v>453</v>
-      </c>
-      <c r="C21" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,15 +4279,15 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" t="s">
         <v>455</v>
-      </c>
-      <c r="C22" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4295,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" t="s">
         <v>458</v>
-      </c>
-      <c r="C24" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4312,7 +4309,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,15 +4317,15 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26" t="s">
         <v>460</v>
-      </c>
-      <c r="C26" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -4535,7 +4532,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4557,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4568,7 +4565,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4576,10 +4573,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4587,10 +4584,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" t="s">
         <v>485</v>
-      </c>
-      <c r="C6" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4601,7 +4598,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4609,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -4636,7 +4633,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4658,22 +4655,22 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4681,10 +4678,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4695,7 +4692,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4711,12 +4708,12 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4746,10 +4743,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" t="s">
         <v>494</v>
-      </c>
-      <c r="C14" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4757,15 +4754,15 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" t="s">
         <v>496</v>
-      </c>
-      <c r="C15" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4776,12 +4773,12 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4789,25 +4786,25 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,10 +4812,10 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C23" t="s">
         <v>503</v>
-      </c>
-      <c r="C23" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4842,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4864,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4877,10 +4874,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4899,10 +4896,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" t="s">
         <v>507</v>
-      </c>
-      <c r="C7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4932,10 +4929,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" t="s">
         <v>509</v>
-      </c>
-      <c r="C10" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4943,7 +4940,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -4971,7 +4968,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4993,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5004,17 +5001,17 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,10 +5019,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" t="s">
         <v>468</v>
-      </c>
-      <c r="C7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,10 +5041,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" t="s">
         <v>470</v>
-      </c>
-      <c r="C9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,10 +5052,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" t="s">
         <v>472</v>
-      </c>
-      <c r="C10" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,10 +5063,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,10 +5074,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" t="s">
         <v>474</v>
-      </c>
-      <c r="C12" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5088,10 +5085,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" t="s">
         <v>476</v>
-      </c>
-      <c r="C13" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5099,20 +5096,20 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5120,10 +5117,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" t="s">
         <v>481</v>
-      </c>
-      <c r="C17" t="s">
-        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -5147,7 +5144,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5177,10 +5174,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
         <v>512</v>
-      </c>
-      <c r="C4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5199,10 +5196,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5210,15 +5207,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" t="s">
         <v>515</v>
-      </c>
-      <c r="C7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5226,10 +5223,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" t="s">
         <v>518</v>
-      </c>
-      <c r="C9" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5237,30 +5234,30 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" t="s">
         <v>520</v>
-      </c>
-      <c r="C10" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5268,30 +5265,30 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C15" t="s">
         <v>526</v>
-      </c>
-      <c r="C15" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5299,15 +5296,15 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" t="s">
         <v>532</v>
-      </c>
-      <c r="C20" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5327,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5360,10 +5357,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" t="s">
         <v>547</v>
-      </c>
-      <c r="C4" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5371,10 +5368,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5382,10 +5379,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" t="s">
         <v>550</v>
-      </c>
-      <c r="C6" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5393,10 +5390,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" t="s">
         <v>552</v>
-      </c>
-      <c r="C7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5404,10 +5401,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5415,15 +5412,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5435,7 +5432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C902E0-24D1-46E1-93F8-7EAA1C41C717}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -5447,7 +5444,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5480,7 +5477,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5491,12 +5488,12 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,15 +5501,15 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5520,10 +5517,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5531,10 +5528,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5564,15 +5561,15 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5594,27 +5591,27 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F1B214-CEBC-4E5E-97CD-7AF97D9D0E27}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5797,7 +5796,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5816,262 +5815,310 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6095,7 +6142,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6114,15 +6161,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6130,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -6138,7 +6185,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6171,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
         <v>73</v>
@@ -6194,7 +6241,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -6244,7 +6291,7 @@
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
@@ -6269,12 +6316,12 @@
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6319,7 +6366,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6327,25 +6374,25 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6367,7 +6414,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6389,52 +6436,52 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6442,10 +6489,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
         <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6453,10 +6500,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6464,30 +6511,30 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
         <v>139</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6495,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
         <v>145</v>
-      </c>
-      <c r="C20" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6506,20 +6553,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
         <v>147</v>
-      </c>
-      <c r="C21" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6527,10 +6574,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
         <v>151</v>
-      </c>
-      <c r="C24" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6538,10 +6585,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
         <v>153</v>
-      </c>
-      <c r="C25" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6549,10 +6596,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
         <v>155</v>
-      </c>
-      <c r="C26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6560,10 +6607,10 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
         <v>157</v>
-      </c>
-      <c r="C27" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6571,10 +6618,10 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
         <v>159</v>
-      </c>
-      <c r="C28" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6582,10 +6629,10 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
         <v>161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6593,10 +6640,10 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
         <v>163</v>
-      </c>
-      <c r="C30" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6604,35 +6651,35 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
         <v>165</v>
-      </c>
-      <c r="C31" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6640,25 +6687,25 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" t="s">
         <v>172</v>
-      </c>
-      <c r="C37" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6666,10 +6713,10 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
         <v>177</v>
-      </c>
-      <c r="C41" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6677,10 +6724,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
         <v>179</v>
-      </c>
-      <c r="C42" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6688,10 +6735,10 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
         <v>181</v>
-      </c>
-      <c r="C43" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6699,10 +6746,10 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
         <v>183</v>
-      </c>
-      <c r="C44" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6713,12 +6760,12 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6726,10 +6773,10 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" t="s">
         <v>187</v>
-      </c>
-      <c r="C47" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6737,10 +6784,10 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
         <v>189</v>
-      </c>
-      <c r="C48" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6748,35 +6795,35 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
         <v>191</v>
-      </c>
-      <c r="C49" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6784,20 +6831,20 @@
         <v>24</v>
       </c>
       <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" t="s">
         <v>198</v>
-      </c>
-      <c r="C55" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6805,10 +6852,10 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" t="s">
         <v>202</v>
-      </c>
-      <c r="C58" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6816,10 +6863,10 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
         <v>204</v>
-      </c>
-      <c r="C59" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6827,15 +6874,15 @@
         <v>27</v>
       </c>
       <c r="B60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" t="s">
         <v>206</v>
-      </c>
-      <c r="C60" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6843,10 +6890,10 @@
         <v>28</v>
       </c>
       <c r="B62" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" t="s">
         <v>209</v>
-      </c>
-      <c r="C62" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6854,10 +6901,10 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" t="s">
         <v>211</v>
-      </c>
-      <c r="C63" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6865,10 +6912,10 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" t="s">
         <v>213</v>
-      </c>
-      <c r="C64" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6876,10 +6923,10 @@
         <v>31</v>
       </c>
       <c r="B65" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" t="s">
         <v>215</v>
-      </c>
-      <c r="C65" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6887,10 +6934,10 @@
         <v>32</v>
       </c>
       <c r="B66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" t="s">
         <v>217</v>
-      </c>
-      <c r="C66" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6898,10 +6945,10 @@
         <v>33</v>
       </c>
       <c r="B67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" t="s">
         <v>219</v>
-      </c>
-      <c r="C67" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6909,10 +6956,10 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" t="s">
         <v>221</v>
-      </c>
-      <c r="C68" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6920,10 +6967,10 @@
         <v>35</v>
       </c>
       <c r="B69" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" t="s">
         <v>223</v>
-      </c>
-      <c r="C69" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6931,10 +6978,10 @@
         <v>36</v>
       </c>
       <c r="B70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" t="s">
         <v>225</v>
-      </c>
-      <c r="C70" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6942,20 +6989,20 @@
         <v>37</v>
       </c>
       <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
         <v>227</v>
-      </c>
-      <c r="C71" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6963,10 +7010,10 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" t="s">
         <v>231</v>
-      </c>
-      <c r="C74" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6974,10 +7021,10 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" t="s">
         <v>233</v>
-      </c>
-      <c r="C75" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6985,10 +7032,10 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
         <v>235</v>
-      </c>
-      <c r="C76" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6996,10 +7043,10 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
         <v>237</v>
-      </c>
-      <c r="C77" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7007,10 +7054,10 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
         <v>239</v>
-      </c>
-      <c r="C78" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7077,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7049,75 +7096,75 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7128,87 +7175,87 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7216,20 +7263,20 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7237,35 +7284,35 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7273,55 +7320,55 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
         <v>172</v>
-      </c>
-      <c r="C43" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7329,15 +7376,15 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7345,45 +7392,45 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7391,20 +7438,20 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7412,25 +7459,25 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7438,50 +7485,50 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -7505,7 +7552,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7535,15 +7582,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
         <v>251</v>
-      </c>
-      <c r="C4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7554,12 +7601,12 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,15 +7614,15 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7583,15 +7630,15 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
         <v>259</v>
-      </c>
-      <c r="C10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7613,7 +7660,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7621,15 +7668,15 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
         <v>263</v>
-      </c>
-      <c r="C14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7640,12 +7687,12 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7656,7 +7703,7 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7664,10 +7711,10 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
         <v>269</v>
-      </c>
-      <c r="C19" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7675,25 +7722,25 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
         <v>271</v>
-      </c>
-      <c r="C20" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7704,27 +7751,27 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,7 +7779,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -7743,10 +7790,10 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7754,10 +7801,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7781,7 +7828,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7803,12 +7850,12 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7819,7 +7866,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7846,12 +7893,12 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7862,12 +7909,12 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7875,10 +7922,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7886,15 +7933,15 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
         <v>292</v>
-      </c>
-      <c r="C13" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7902,10 +7949,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" t="s">
         <v>295</v>
-      </c>
-      <c r="C15" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7916,7 +7963,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7935,10 +7982,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7946,10 +7993,10 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7960,7 +8007,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7968,15 +8015,15 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Mouse/MouseAdult_CellTypes.xlsx
+++ b/Mouse/MouseAdult_CellTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\freya\NAS\mgriswold\CellProfileLibrary\Mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29355172-3B23-4E59-8C74-3722A5FCB5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9AAC6-AEC4-4F62-A10E-469BE078A4C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EF3D0EE4-8FB4-4CD1-A1F7-226FF1ED9010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{EF3D0EE4-8FB4-4CD1-A1F7-226FF1ED9010}"/>
   </bookViews>
   <sheets>
     <sheet name="Bladder_MCA" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,26 @@
     <sheet name="Brain_AllenBrainAtlas_Class" sheetId="5" r:id="rId5"/>
     <sheet name="ImmuneAtlas_ImmGen" sheetId="6" r:id="rId6"/>
     <sheet name="ImmuneAtlas_ImmGen_Lineage" sheetId="7" r:id="rId7"/>
-    <sheet name="Kidney_MCA" sheetId="8" r:id="rId8"/>
-    <sheet name="Liver_MCA" sheetId="9" r:id="rId9"/>
-    <sheet name="Lung_MCA" sheetId="10" r:id="rId10"/>
-    <sheet name="MammaryGland_Involution_MCA" sheetId="11" r:id="rId11"/>
-    <sheet name="MammaryGland_Lactation_MCA" sheetId="12" r:id="rId12"/>
-    <sheet name="MammaryGland_Pregnancy_MCA" sheetId="13" r:id="rId13"/>
-    <sheet name="MammaryGland_Virgin_MCA" sheetId="14" r:id="rId14"/>
-    <sheet name="Muscle_MCA" sheetId="15" r:id="rId15"/>
-    <sheet name="Ovary_MCA" sheetId="16" r:id="rId16"/>
-    <sheet name="Pancreas_MCA" sheetId="17" r:id="rId17"/>
-    <sheet name="PeripheralBlood_MCA" sheetId="18" r:id="rId18"/>
-    <sheet name="Placenta_MCA" sheetId="19" r:id="rId19"/>
-    <sheet name="Prostate_MCA" sheetId="21" r:id="rId20"/>
-    <sheet name="SmallIntestine_MCA" sheetId="22" r:id="rId21"/>
-    <sheet name="Spleen_MCA" sheetId="23" r:id="rId22"/>
-    <sheet name="Stomach_MCA" sheetId="20" r:id="rId23"/>
-    <sheet name="Testis_MCA" sheetId="24" r:id="rId24"/>
-    <sheet name="Thymus_MCA" sheetId="26" r:id="rId25"/>
-    <sheet name="Uterus_MCA" sheetId="25" r:id="rId26"/>
+    <sheet name="ImmuneAtlas_cellFamily_ImmGen" sheetId="27" r:id="rId8"/>
+    <sheet name="Kidney_MCA" sheetId="8" r:id="rId9"/>
+    <sheet name="Liver_MCA" sheetId="9" r:id="rId10"/>
+    <sheet name="Lung_MCA" sheetId="10" r:id="rId11"/>
+    <sheet name="MammaryGland_Involution_MCA" sheetId="11" r:id="rId12"/>
+    <sheet name="MammaryGland_Lactation_MCA" sheetId="12" r:id="rId13"/>
+    <sheet name="MammaryGland_Pregnancy_MCA" sheetId="13" r:id="rId14"/>
+    <sheet name="MammaryGland_Virgin_MCA" sheetId="14" r:id="rId15"/>
+    <sheet name="Muscle_MCA" sheetId="15" r:id="rId16"/>
+    <sheet name="Ovary_MCA" sheetId="16" r:id="rId17"/>
+    <sheet name="Pancreas_MCA" sheetId="17" r:id="rId18"/>
+    <sheet name="PeripheralBlood_MCA" sheetId="18" r:id="rId19"/>
+    <sheet name="Placenta_MCA" sheetId="19" r:id="rId20"/>
+    <sheet name="Prostate_MCA" sheetId="21" r:id="rId21"/>
+    <sheet name="SmallIntestine_MCA" sheetId="22" r:id="rId22"/>
+    <sheet name="Spleen_MCA" sheetId="23" r:id="rId23"/>
+    <sheet name="Stomach_MCA" sheetId="20" r:id="rId24"/>
+    <sheet name="Testis_MCA" sheetId="24" r:id="rId25"/>
+    <sheet name="Thymus_MCA" sheetId="26" r:id="rId26"/>
+    <sheet name="Uterus_MCA" sheetId="25" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="557">
   <si>
     <t>Main Cell Types</t>
   </si>
@@ -1726,6 +1727,9 @@
   </si>
   <si>
     <t>Thymus - MCA</t>
+  </si>
+  <si>
+    <t>ImmGen Lineage</t>
   </si>
 </sst>
 </file>
@@ -2333,6 +2337,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB956815-F334-4F7F-86CE-D4EEF7349043}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68C820-21F7-4933-9450-7EB4A96CC9B0}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -2632,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18332EA4-4892-4220-82A3-8FCC7889BB09}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -2848,7 +3071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7703-C29F-429C-AEFE-AFE16DBC3B8F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -2997,7 +3220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293175B3-E9D3-4891-955C-A545B22B3039}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3163,7 +3386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE45EC-1854-47A6-8A21-1CB531DF28B1}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -3327,7 +3550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B615E9-DC7E-423E-95B6-2DD938DCC13E}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3480,7 +3703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B3BB5A-055A-4F48-9183-8C691CFA9515}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -3633,7 +3856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB4F90-763F-4E3F-A269-6706118906CA}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -3858,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864E1DA6-CEDD-4307-BAFB-BA0D6D908F2B}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -4034,298 +4257,6 @@
       </c>
       <c r="C22" t="s">
         <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7BA21-0A80-492F-B4EC-45FDEA9B6771}">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>445</v>
-      </c>
-      <c r="C12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>447</v>
-      </c>
-      <c r="C18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>449</v>
-      </c>
-      <c r="C19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>452</v>
-      </c>
-      <c r="C21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>454</v>
-      </c>
-      <c r="C22" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -4518,6 +4449,298 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7BA21-0A80-492F-B4EC-45FDEA9B6771}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92F6DFB-87EC-4982-802A-3CB6EA7A1C94}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4617,7 +4840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFD466-ED76-42E4-9A65-C8FF1E75DAB7}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -4823,7 +5046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54525862-2259-4188-B666-A82E90BAAAA9}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -4951,7 +5174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791BEBCD-EE0E-40EF-8CC2-BB9FA5D1BFC0}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -5128,7 +5351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254D654-1F29-4824-AB6E-728ECFB0A4A7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -5312,7 +5535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276ED048-DC5A-4251-B79A-3B7CBE2B5F74}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5428,7 +5651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C902E0-24D1-46E1-93F8-7EAA1C41C717}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -5784,7 +6007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F1B214-CEBC-4E5E-97CD-7AF97D9D0E27}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -7537,6 +7760,307 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186C9533-05F4-494A-B604-9D0B68B427BD}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EEF57-B5B8-4D78-B3B2-42D185CE656B}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -7810,223 +8334,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB956815-F334-4F7F-86CE-D4EEF7349043}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mouse/MouseAdult_CellTypes.xlsx
+++ b/Mouse/MouseAdult_CellTypes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\freya\NAS\mgriswold\CellProfileLibrary\Mouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgriswold\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9AAC6-AEC4-4F62-A10E-469BE078A4C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A756D2E-7FD7-4511-9F5D-8FAA48DC7B64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{EF3D0EE4-8FB4-4CD1-A1F7-226FF1ED9010}"/>
+    <workbookView xWindow="4950" yWindow="2265" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{EF3D0EE4-8FB4-4CD1-A1F7-226FF1ED9010}"/>
   </bookViews>
   <sheets>
     <sheet name="Bladder_MCA" sheetId="1" r:id="rId1"/>
@@ -18,30 +18,31 @@
     <sheet name="BoneMarrow_MCA" sheetId="3" r:id="rId3"/>
     <sheet name="Brain_AllenBrainAtlas" sheetId="4" r:id="rId4"/>
     <sheet name="Brain_AllenBrainAtlas_Class" sheetId="5" r:id="rId5"/>
-    <sheet name="ImmuneAtlas_ImmGen" sheetId="6" r:id="rId6"/>
-    <sheet name="ImmuneAtlas_ImmGen_Lineage" sheetId="7" r:id="rId7"/>
-    <sheet name="ImmuneAtlas_cellFamily_ImmGen" sheetId="27" r:id="rId8"/>
-    <sheet name="Kidney_MCA" sheetId="8" r:id="rId9"/>
-    <sheet name="Liver_MCA" sheetId="9" r:id="rId10"/>
-    <sheet name="Lung_MCA" sheetId="10" r:id="rId11"/>
-    <sheet name="MammaryGland_Involution_MCA" sheetId="11" r:id="rId12"/>
-    <sheet name="MammaryGland_Lactation_MCA" sheetId="12" r:id="rId13"/>
-    <sheet name="MammaryGland_Pregnancy_MCA" sheetId="13" r:id="rId14"/>
-    <sheet name="MammaryGland_Virgin_MCA" sheetId="14" r:id="rId15"/>
-    <sheet name="Muscle_MCA" sheetId="15" r:id="rId16"/>
-    <sheet name="Ovary_MCA" sheetId="16" r:id="rId17"/>
-    <sheet name="Pancreas_MCA" sheetId="17" r:id="rId18"/>
-    <sheet name="PeripheralBlood_MCA" sheetId="18" r:id="rId19"/>
-    <sheet name="Placenta_MCA" sheetId="19" r:id="rId20"/>
-    <sheet name="Prostate_MCA" sheetId="21" r:id="rId21"/>
-    <sheet name="SmallIntestine_MCA" sheetId="22" r:id="rId22"/>
-    <sheet name="Spleen_MCA" sheetId="23" r:id="rId23"/>
-    <sheet name="Stomach_MCA" sheetId="20" r:id="rId24"/>
-    <sheet name="Testis_MCA" sheetId="24" r:id="rId25"/>
-    <sheet name="Thymus_MCA" sheetId="26" r:id="rId26"/>
-    <sheet name="Uterus_MCA" sheetId="25" r:id="rId27"/>
+    <sheet name="Brain_MCA" sheetId="28" r:id="rId6"/>
+    <sheet name="ImmuneAtlas_ImmGen" sheetId="6" r:id="rId7"/>
+    <sheet name="ImmuneAtlas_ImmGen_Lineage" sheetId="7" r:id="rId8"/>
+    <sheet name="ImmuneAtlas_cellFamily_ImmGen" sheetId="27" r:id="rId9"/>
+    <sheet name="Kidney_MCA" sheetId="8" r:id="rId10"/>
+    <sheet name="Liver_MCA" sheetId="9" r:id="rId11"/>
+    <sheet name="Lung_MCA" sheetId="10" r:id="rId12"/>
+    <sheet name="MammaryGland_Involution_MCA" sheetId="11" r:id="rId13"/>
+    <sheet name="MammaryGland_Lactation_MCA" sheetId="12" r:id="rId14"/>
+    <sheet name="MammaryGland_Pregnancy_MCA" sheetId="13" r:id="rId15"/>
+    <sheet name="MammaryGland_Virgin_MCA" sheetId="14" r:id="rId16"/>
+    <sheet name="Muscle_MCA" sheetId="15" r:id="rId17"/>
+    <sheet name="Ovary_MCA" sheetId="16" r:id="rId18"/>
+    <sheet name="Pancreas_MCA" sheetId="17" r:id="rId19"/>
+    <sheet name="PeripheralBlood_MCA" sheetId="18" r:id="rId20"/>
+    <sheet name="Placenta_MCA" sheetId="19" r:id="rId21"/>
+    <sheet name="Prostate_MCA" sheetId="21" r:id="rId22"/>
+    <sheet name="SmallIntestine_MCA" sheetId="22" r:id="rId23"/>
+    <sheet name="Spleen_MCA" sheetId="23" r:id="rId24"/>
+    <sheet name="Stomach_MCA" sheetId="20" r:id="rId25"/>
+    <sheet name="Testis_MCA" sheetId="24" r:id="rId26"/>
+    <sheet name="Thymus_MCA" sheetId="26" r:id="rId27"/>
+    <sheet name="Uterus_MCA" sheetId="25" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="569">
   <si>
     <t>Main Cell Types</t>
   </si>
@@ -1730,6 +1731,42 @@
   </si>
   <si>
     <t>ImmGen Lineage</t>
+  </si>
+  <si>
+    <t>Astrocyte</t>
+  </si>
+  <si>
+    <t>Astrocyte_Atp1b2 high</t>
+  </si>
+  <si>
+    <t>Astrocyte_Mfe8 high</t>
+  </si>
+  <si>
+    <t>Astrocyte_Pla2g7 high</t>
+  </si>
+  <si>
+    <t>Granulocyte_Il33 high</t>
+  </si>
+  <si>
+    <t>Macrophage_Klf2 high</t>
+  </si>
+  <si>
+    <t>Myelinating oligodendrocyte</t>
+  </si>
+  <si>
+    <t>Neuron</t>
+  </si>
+  <si>
+    <t>Oligodendrocyte precursor</t>
+  </si>
+  <si>
+    <t>Pan-GABAergic Neuron</t>
+  </si>
+  <si>
+    <t>Schwann cell</t>
+  </si>
+  <si>
+    <t>Brain - MCA</t>
   </si>
 </sst>
 </file>
@@ -2337,6 +2374,282 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EEF57-B5B8-4D78-B3B2-42D185CE656B}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB956815-F334-4F7F-86CE-D4EEF7349043}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2555,7 +2868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68C820-21F7-4933-9450-7EB4A96CC9B0}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -2855,7 +3168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18332EA4-4892-4220-82A3-8FCC7889BB09}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3071,7 +3384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7703-C29F-429C-AEFE-AFE16DBC3B8F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3220,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293175B3-E9D3-4891-955C-A545B22B3039}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3386,7 +3699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE45EC-1854-47A6-8A21-1CB531DF28B1}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -3550,7 +3863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B615E9-DC7E-423E-95B6-2DD938DCC13E}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3703,7 +4016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B3BB5A-055A-4F48-9183-8C691CFA9515}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -3856,7 +4169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB4F90-763F-4E3F-A269-6706118906CA}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -4068,189 +4381,6 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864E1DA6-CEDD-4307-BAFB-BA0D6D908F2B}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>280</v>
@@ -4449,6 +4579,189 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864E1DA6-CEDD-4307-BAFB-BA0D6D908F2B}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7BA21-0A80-492F-B4EC-45FDEA9B6771}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -4740,7 +5053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92F6DFB-87EC-4982-802A-3CB6EA7A1C94}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4840,7 +5153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFD466-ED76-42E4-9A65-C8FF1E75DAB7}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5046,7 +5359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54525862-2259-4188-B666-A82E90BAAAA9}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -5174,7 +5487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791BEBCD-EE0E-40EF-8CC2-BB9FA5D1BFC0}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -5351,7 +5664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254D654-1F29-4824-AB6E-728ECFB0A4A7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -5535,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276ED048-DC5A-4251-B79A-3B7CBE2B5F74}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5651,7 +5964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C902E0-24D1-46E1-93F8-7EAA1C41C717}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -5847,7 +6160,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6624,6 +6937,159 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A236248-5D66-4FFF-B5A3-BB6E90DCF014}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB6C12C-72E0-4C23-90BA-03E5ADDFA956}">
   <dimension ref="A1:C78"/>
   <sheetViews>
@@ -7288,7 +7754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C03B65-E18B-4D7B-A426-08AC6386E6E8}">
   <dimension ref="A1:C78"/>
   <sheetViews>
@@ -7759,11 +8225,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186C9533-05F4-494A-B604-9D0B68B427BD}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -8058,280 +8524,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EEF57-B5B8-4D78-B3B2-42D185CE656B}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>280</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mouse/MouseAdult_CellTypes.xlsx
+++ b/Mouse/MouseAdult_CellTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgriswold\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmcguire\Desktop\smi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A756D2E-7FD7-4511-9F5D-8FAA48DC7B64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F781E2-7202-4BDD-B4F0-23063E9B1DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2265" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{EF3D0EE4-8FB4-4CD1-A1F7-226FF1ED9010}"/>
+    <workbookView xWindow="1515" yWindow="810" windowWidth="22080" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{EF3D0EE4-8FB4-4CD1-A1F7-226FF1ED9010}"/>
   </bookViews>
   <sheets>
     <sheet name="Bladder_MCA" sheetId="1" r:id="rId1"/>
@@ -19,30 +19,31 @@
     <sheet name="Brain_AllenBrainAtlas" sheetId="4" r:id="rId4"/>
     <sheet name="Brain_AllenBrainAtlas_Class" sheetId="5" r:id="rId5"/>
     <sheet name="Brain_MCA" sheetId="28" r:id="rId6"/>
-    <sheet name="ImmuneAtlas_ImmGen" sheetId="6" r:id="rId7"/>
-    <sheet name="ImmuneAtlas_ImmGen_Lineage" sheetId="7" r:id="rId8"/>
-    <sheet name="ImmuneAtlas_cellFamily_ImmGen" sheetId="27" r:id="rId9"/>
-    <sheet name="Kidney_MCA" sheetId="8" r:id="rId10"/>
-    <sheet name="Liver_MCA" sheetId="9" r:id="rId11"/>
-    <sheet name="Lung_MCA" sheetId="10" r:id="rId12"/>
-    <sheet name="MammaryGland_Involution_MCA" sheetId="11" r:id="rId13"/>
-    <sheet name="MammaryGland_Lactation_MCA" sheetId="12" r:id="rId14"/>
-    <sheet name="MammaryGland_Pregnancy_MCA" sheetId="13" r:id="rId15"/>
-    <sheet name="MammaryGland_Virgin_MCA" sheetId="14" r:id="rId16"/>
-    <sheet name="Muscle_MCA" sheetId="15" r:id="rId17"/>
-    <sheet name="Ovary_MCA" sheetId="16" r:id="rId18"/>
-    <sheet name="Pancreas_MCA" sheetId="17" r:id="rId19"/>
-    <sheet name="PeripheralBlood_MCA" sheetId="18" r:id="rId20"/>
-    <sheet name="Placenta_MCA" sheetId="19" r:id="rId21"/>
-    <sheet name="Prostate_MCA" sheetId="21" r:id="rId22"/>
-    <sheet name="SmallIntestine_MCA" sheetId="22" r:id="rId23"/>
-    <sheet name="Spleen_MCA" sheetId="23" r:id="rId24"/>
-    <sheet name="Stomach_MCA" sheetId="20" r:id="rId25"/>
-    <sheet name="Testis_MCA" sheetId="24" r:id="rId26"/>
-    <sheet name="Thymus_MCA" sheetId="26" r:id="rId27"/>
-    <sheet name="Uterus_MCA" sheetId="25" r:id="rId28"/>
+    <sheet name="Colon_SCP2038" sheetId="29" r:id="rId7"/>
+    <sheet name="ImmuneAtlas_ImmGen" sheetId="6" r:id="rId8"/>
+    <sheet name="ImmuneAtlas_ImmGen_Lineage" sheetId="7" r:id="rId9"/>
+    <sheet name="ImmuneAtlas_cellFamily_ImmGen" sheetId="27" r:id="rId10"/>
+    <sheet name="Kidney_MCA" sheetId="8" r:id="rId11"/>
+    <sheet name="Liver_MCA" sheetId="9" r:id="rId12"/>
+    <sheet name="Lung_MCA" sheetId="10" r:id="rId13"/>
+    <sheet name="MammaryGland_Involution_MCA" sheetId="11" r:id="rId14"/>
+    <sheet name="MammaryGland_Lactation_MCA" sheetId="12" r:id="rId15"/>
+    <sheet name="MammaryGland_Pregnancy_MCA" sheetId="13" r:id="rId16"/>
+    <sheet name="MammaryGland_Virgin_MCA" sheetId="14" r:id="rId17"/>
+    <sheet name="Muscle_MCA" sheetId="15" r:id="rId18"/>
+    <sheet name="Ovary_MCA" sheetId="16" r:id="rId19"/>
+    <sheet name="Pancreas_MCA" sheetId="17" r:id="rId20"/>
+    <sheet name="PeripheralBlood_MCA" sheetId="18" r:id="rId21"/>
+    <sheet name="Placenta_MCA" sheetId="19" r:id="rId22"/>
+    <sheet name="Prostate_MCA" sheetId="21" r:id="rId23"/>
+    <sheet name="SmallIntestine_MCA" sheetId="22" r:id="rId24"/>
+    <sheet name="Spleen_MCA" sheetId="23" r:id="rId25"/>
+    <sheet name="Stomach_MCA" sheetId="20" r:id="rId26"/>
+    <sheet name="Testis_MCA" sheetId="24" r:id="rId27"/>
+    <sheet name="Thymus_MCA" sheetId="26" r:id="rId28"/>
+    <sheet name="Uterus_MCA" sheetId="25" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="578">
   <si>
     <t>Main Cell Types</t>
   </si>
@@ -1767,6 +1768,33 @@
   </si>
   <si>
     <t>Brain - MCA</t>
+  </si>
+  <si>
+    <t>Colon - SCP2038</t>
+  </si>
+  <si>
+    <t>colon.epithelial.cell</t>
+  </si>
+  <si>
+    <t>B.cell</t>
+  </si>
+  <si>
+    <t>lymphocyte</t>
+  </si>
+  <si>
+    <t>macrophage</t>
+  </si>
+  <si>
+    <t>mast.cell</t>
+  </si>
+  <si>
+    <t>granulocyte</t>
+  </si>
+  <si>
+    <t>fibroblast</t>
+  </si>
+  <si>
+    <t>endothelial.cell</t>
   </si>
 </sst>
 </file>
@@ -2374,11 +2402,312 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186C9533-05F4-494A-B604-9D0B68B427BD}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EEF57-B5B8-4D78-B3B2-42D185CE656B}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2649,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB956815-F334-4F7F-86CE-D4EEF7349043}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2868,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68C820-21F7-4933-9450-7EB4A96CC9B0}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -3168,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18332EA4-4892-4220-82A3-8FCC7889BB09}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3384,7 +3713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7703-C29F-429C-AEFE-AFE16DBC3B8F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3533,7 +3862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293175B3-E9D3-4891-955C-A545B22B3039}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3699,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE45EC-1854-47A6-8A21-1CB531DF28B1}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -3863,7 +4192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B615E9-DC7E-423E-95B6-2DD938DCC13E}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4016,7 +4345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B3BB5A-055A-4F48-9183-8C691CFA9515}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4162,231 +4491,6 @@
       </c>
       <c r="C16" t="s">
         <v>406</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB4F90-763F-4E3F-A269-6706118906CA}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>421</v>
-      </c>
-      <c r="C15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4579,6 +4683,231 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB4F90-763F-4E3F-A269-6706118906CA}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864E1DA6-CEDD-4307-BAFB-BA0D6D908F2B}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -4761,7 +5090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7BA21-0A80-492F-B4EC-45FDEA9B6771}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -5053,7 +5382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92F6DFB-87EC-4982-802A-3CB6EA7A1C94}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -5153,7 +5482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFD466-ED76-42E4-9A65-C8FF1E75DAB7}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5359,7 +5688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54525862-2259-4188-B666-A82E90BAAAA9}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -5487,7 +5816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791BEBCD-EE0E-40EF-8CC2-BB9FA5D1BFC0}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -5664,7 +5993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254D654-1F29-4824-AB6E-728ECFB0A4A7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -5848,7 +6177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276ED048-DC5A-4251-B79A-3B7CBE2B5F74}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5964,7 +6293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C902E0-24D1-46E1-93F8-7EAA1C41C717}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -6940,8 +7269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A236248-5D66-4FFF-B5A3-BB6E90DCF014}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7090,6 +7419,139 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365D35FC-3E88-491D-BBA7-E1EBB6F502F4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB6C12C-72E0-4C23-90BA-03E5ADDFA956}">
   <dimension ref="A1:C78"/>
   <sheetViews>
@@ -7754,7 +8216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C03B65-E18B-4D7B-A426-08AC6386E6E8}">
   <dimension ref="A1:C78"/>
   <sheetViews>
@@ -8223,305 +8685,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186C9533-05F4-494A-B604-9D0B68B427BD}">
-  <dimension ref="A1:C44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>